--- a/Data/Trade/SZ.002024.xlsx
+++ b/Data/Trade/SZ.002024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>243</v>
+        <v>566</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -492,7 +492,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>244</v>
+        <v>567</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>245</v>
+        <v>568</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>246</v>
+        <v>569</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>247</v>
+        <v>570</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>248</v>
+        <v>571</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>249</v>
+        <v>572</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>250</v>
+        <v>573</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>251</v>
+        <v>574</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>252</v>
+        <v>575</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>254</v>
+        <v>577</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>255</v>
+        <v>578</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>256</v>
+        <v>579</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>257</v>
+        <v>580</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>258</v>
+        <v>581</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>259</v>
+        <v>582</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>260</v>
+        <v>583</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>261</v>
+        <v>584</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>262</v>
+        <v>585</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>263</v>
+        <v>586</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>264</v>
+        <v>587</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>265</v>
+        <v>588</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>266</v>
+        <v>589</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>267</v>
+        <v>590</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>268</v>
+        <v>591</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>269</v>
+        <v>592</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>270</v>
+        <v>593</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>271</v>
+        <v>594</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>272</v>
+        <v>595</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>273</v>
+        <v>596</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>274</v>
+        <v>597</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>275</v>
+        <v>598</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>276</v>
+        <v>599</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>278</v>
+        <v>601</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>279</v>
+        <v>602</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>280</v>
+        <v>603</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>281</v>
+        <v>604</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>282</v>
+        <v>605</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>283</v>
+        <v>606</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>284</v>
+        <v>607</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>285</v>
+        <v>608</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>286</v>
+        <v>609</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>287</v>
+        <v>610</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>288</v>
+        <v>611</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>289</v>
+        <v>612</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>290</v>
+        <v>613</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>291</v>
+        <v>614</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>292</v>
+        <v>615</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>293</v>
+        <v>616</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>294</v>
+        <v>617</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>295</v>
+        <v>618</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>296</v>
+        <v>619</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>297</v>
+        <v>620</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>298</v>
+        <v>621</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>299</v>
+        <v>622</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>300</v>
+        <v>623</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>301</v>
+        <v>624</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>302</v>
+        <v>625</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>303</v>
+        <v>626</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>304</v>
+        <v>627</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>305</v>
+        <v>628</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>306</v>
+        <v>629</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>307</v>
+        <v>630</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>308</v>
+        <v>631</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>309</v>
+        <v>632</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>310</v>
+        <v>633</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>311</v>
+        <v>634</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>312</v>
+        <v>635</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>313</v>
+        <v>636</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>314</v>
+        <v>637</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>315</v>
+        <v>638</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>316</v>
+        <v>639</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>317</v>
+        <v>640</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>318</v>
+        <v>641</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>319</v>
+        <v>642</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>320</v>
+        <v>643</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>322</v>
+        <v>645</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>323</v>
+        <v>646</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>324</v>
+        <v>647</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>325</v>
+        <v>648</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>326</v>
+        <v>649</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>327</v>
+        <v>650</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>328</v>
+        <v>651</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>329</v>
+        <v>652</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>330</v>
+        <v>653</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>331</v>
+        <v>654</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>332</v>
+        <v>655</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>333</v>
+        <v>656</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>334</v>
+        <v>657</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>335</v>
+        <v>658</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>336</v>
+        <v>659</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>337</v>
+        <v>660</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>338</v>
+        <v>661</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>339</v>
+        <v>662</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>340</v>
+        <v>663</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>341</v>
+        <v>664</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>342</v>
+        <v>665</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>343</v>
+        <v>666</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>344</v>
+        <v>667</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>345</v>
+        <v>668</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>346</v>
+        <v>669</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>347</v>
+        <v>670</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>348</v>
+        <v>671</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>349</v>
+        <v>672</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>350</v>
+        <v>673</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>351</v>
+        <v>674</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>352</v>
+        <v>675</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>353</v>
+        <v>676</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>354</v>
+        <v>677</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>355</v>
+        <v>678</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>356</v>
+        <v>679</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>357</v>
+        <v>680</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>358</v>
+        <v>681</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>359</v>
+        <v>682</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>360</v>
+        <v>683</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>361</v>
+        <v>684</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>362</v>
+        <v>685</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>363</v>
+        <v>686</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>364</v>
+        <v>687</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>365</v>
+        <v>688</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>366</v>
+        <v>689</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>367</v>
+        <v>690</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>368</v>
+        <v>691</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>369</v>
+        <v>692</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>370</v>
+        <v>693</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>371</v>
+        <v>694</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>372</v>
+        <v>695</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>373</v>
+        <v>696</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>374</v>
+        <v>697</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>375</v>
+        <v>698</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>376</v>
+        <v>699</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>377</v>
+        <v>700</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>378</v>
+        <v>701</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>379</v>
+        <v>702</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>380</v>
+        <v>703</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>381</v>
+        <v>704</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>382</v>
+        <v>705</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>383</v>
+        <v>706</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>384</v>
+        <v>707</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>385</v>
+        <v>708</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>386</v>
+        <v>709</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>387</v>
+        <v>710</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>388</v>
+        <v>711</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>389</v>
+        <v>712</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>390</v>
+        <v>713</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>391</v>
+        <v>714</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>392</v>
+        <v>715</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>393</v>
+        <v>716</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>394</v>
+        <v>717</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>395</v>
+        <v>718</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>396</v>
+        <v>719</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>397</v>
+        <v>720</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>398</v>
+        <v>721</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>399</v>
+        <v>722</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>400</v>
+        <v>723</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>401</v>
+        <v>724</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>402</v>
+        <v>725</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>403</v>
+        <v>726</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>404</v>
+        <v>727</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>405</v>
+        <v>728</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>406</v>
+        <v>729</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>407</v>
+        <v>730</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>408</v>
+        <v>731</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>409</v>
+        <v>732</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>410</v>
+        <v>733</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>411</v>
+        <v>734</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>412</v>
+        <v>735</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>413</v>
+        <v>736</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>414</v>
+        <v>737</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>415</v>
+        <v>738</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -4788,6 +4788,381 @@
       </c>
       <c r="G174" t="n">
         <v>-4.377066128126756</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2021-09-16</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="D175" t="b">
+        <v>0</v>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-7.190013110466651</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2021-09-17</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="D176" t="b">
+        <v>0</v>
+      </c>
+      <c r="E176" t="b">
+        <v>0</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-8.386578874271279</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2021-09-22</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="D177" t="b">
+        <v>0</v>
+      </c>
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-11.24986808259694</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2021-09-23</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="D178" t="b">
+        <v>0</v>
+      </c>
+      <c r="E178" t="b">
+        <v>0</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-8.865048312953583</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2021-09-24</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="D179" t="b">
+        <v>0</v>
+      </c>
+      <c r="E179" t="b">
+        <v>0</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-7.807777368035435</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2021-09-27</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="D180" t="b">
+        <v>0</v>
+      </c>
+      <c r="E180" t="b">
+        <v>0</v>
+      </c>
+      <c r="F180" t="b">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-5.339744062884357</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2021-09-28</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D181" t="b">
+        <v>0</v>
+      </c>
+      <c r="E181" t="b">
+        <v>0</v>
+      </c>
+      <c r="F181" t="b">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-3.364269465210199</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="D182" t="b">
+        <v>0</v>
+      </c>
+      <c r="E182" t="b">
+        <v>0</v>
+      </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-3.317721931375335</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2021-09-30</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="D183" t="b">
+        <v>0</v>
+      </c>
+      <c r="E183" t="b">
+        <v>0</v>
+      </c>
+      <c r="F183" t="b">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>5.039437889064857</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="D184" t="b">
+        <v>0</v>
+      </c>
+      <c r="E184" t="b">
+        <v>0</v>
+      </c>
+      <c r="F184" t="b">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>43.07033680957328</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2021-10-11</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="D185" t="b">
+        <v>0</v>
+      </c>
+      <c r="E185" t="b">
+        <v>0</v>
+      </c>
+      <c r="F185" t="b">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>61.90032853597825</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2021-10-12</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="D186" t="b">
+        <v>0</v>
+      </c>
+      <c r="E186" t="b">
+        <v>1</v>
+      </c>
+      <c r="F186" t="b">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>50.196955021322</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2021-10-13</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>5</v>
+      </c>
+      <c r="D187" t="b">
+        <v>0</v>
+      </c>
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
+      <c r="F187" t="b">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>35.86863351859413</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2021-10-14</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="D188" t="b">
+        <v>0</v>
+      </c>
+      <c r="E188" t="b">
+        <v>0</v>
+      </c>
+      <c r="F188" t="b">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>23.14471653383558</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2021-10-15</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="D189" t="b">
+        <v>0</v>
+      </c>
+      <c r="E189" t="b">
+        <v>0</v>
+      </c>
+      <c r="F189" t="b">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>9.677697070441234</v>
       </c>
     </row>
   </sheetData>
